--- a/2014-01-08 Top 100/charts.xlsx
+++ b/2014-01-08 Top 100/charts.xlsx
@@ -3977,7 +3977,7 @@
   <dimension ref="A1:S2627"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
